--- a/data/trans_orig/P6510-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6510-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{192F3418-CEE9-4027-8B35-FD67CF651E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31937AC7-09D3-4719-9550-076A34D8E45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6389FB13-B38A-4F0E-A12D-C59147F1908D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E1532121-331C-48F2-A341-23583D0FE2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="156">
   <si>
     <t>Población según la exposición a movimientos repetitivos de manos o brazos durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>20,51%</t>
   </si>
   <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
   </si>
   <si>
     <t>23,45%</t>
   </si>
   <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
   </si>
   <si>
     <t>21,36%</t>
   </si>
   <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>14,47%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>17,6%</t>
   </si>
   <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
   </si>
   <si>
     <t>15,37%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,142 +134,142 @@
     <t>35,39%</t>
   </si>
   <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
   </si>
   <si>
     <t>22,56%</t>
   </si>
   <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
   </si>
   <si>
     <t>31,68%</t>
   </si>
   <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
     <t>27,82%</t>
   </si>
   <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
   </si>
   <si>
     <t>28,71%</t>
@@ -278,25 +278,25 @@
     <t>25,92%</t>
   </si>
   <si>
-    <t>31,41%</t>
+    <t>31,75%</t>
   </si>
   <si>
     <t>24,29%</t>
   </si>
   <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
   </si>
   <si>
     <t>27,2%</t>
   </si>
   <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -305,97 +305,91 @@
     <t>40,77%</t>
   </si>
   <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
   </si>
   <si>
     <t>40,26%</t>
   </si>
   <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
   </si>
   <si>
     <t>27,02%</t>
   </si>
   <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
   </si>
   <si>
     <t>23,77%</t>
   </si>
   <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
   </si>
   <si>
     <t>25,66%</t>
   </si>
   <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
   </si>
   <si>
     <t>20,01%</t>
   </si>
   <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
   </si>
   <si>
     <t>27,92%</t>
   </si>
   <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
   </si>
   <si>
     <t>23,31%</t>
   </si>
   <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
   </si>
   <si>
     <t>12,2%</t>
   </si>
   <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
   </si>
   <si>
     <t>8,05%</t>
   </si>
   <si>
-    <t>5,34%</t>
+    <t>5,09%</t>
   </si>
   <si>
     <t>11,42%</t>
@@ -404,109 +398,109 @@
     <t>10,47%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
   </si>
   <si>
     <t>25,82%</t>
   </si>
   <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
   </si>
   <si>
     <t>29,1%</t>
   </si>
   <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
   </si>
   <si>
     <t>26,97%</t>
   </si>
   <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
+    <t>25,5%</t>
   </si>
   <si>
     <t>21,8%</t>
   </si>
   <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>21,17%</t>
   </si>
   <si>
-    <t>23,85%</t>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>21,58%</t>
   </si>
   <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
+    <t>20,06%</t>
   </si>
   <si>
     <t>27,01%</t>
   </si>
   <si>
-    <t>29,32%</t>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>31,31%</t>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
   </si>
   <si>
     <t>27,44%</t>
   </si>
   <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
+    <t>29,18%</t>
   </si>
   <si>
     <t>25,37%</t>
   </si>
   <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
   </si>
   <si>
     <t>21,49%</t>
   </si>
   <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
   </si>
   <si>
     <t>24,01%</t>
   </si>
   <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9FD655-C8E0-4E1D-992E-6255D9728651}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F6AF35-3C8A-4F34-9DC2-D85FB1CAF3DC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1317,13 +1311,13 @@
         <v>145514</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>376</v>
@@ -1332,13 +1326,13 @@
         <v>394520</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1353,13 +1347,13 @@
         <v>250941</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>116</v>
@@ -1368,13 +1362,13 @@
         <v>121000</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>357</v>
@@ -1383,13 +1377,13 @@
         <v>371941</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1404,13 +1398,13 @@
         <v>300068</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>164</v>
@@ -1419,13 +1413,13 @@
         <v>173873</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>454</v>
@@ -1434,7 +1428,7 @@
         <v>473941</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>76</v>
@@ -1589,13 +1583,13 @@
         <v>282060</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1610,13 +1604,13 @@
         <v>109499</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>66</v>
@@ -1625,13 +1619,13 @@
         <v>68986</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>171</v>
@@ -1640,13 +1634,13 @@
         <v>178485</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,13 +1655,13 @@
         <v>81118</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>78</v>
@@ -1676,13 +1670,13 @@
         <v>81024</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>157</v>
@@ -1691,13 +1685,13 @@
         <v>162142</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,13 +1706,13 @@
         <v>49453</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -1727,13 +1721,13 @@
         <v>23347</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>67</v>
@@ -1742,13 +1736,13 @@
         <v>72800</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,13 +1810,13 @@
         <v>491269</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>283</v>
@@ -1831,28 +1825,28 @@
         <v>298092</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>756</v>
       </c>
       <c r="N19" s="7">
-        <v>789362</v>
+        <v>789361</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,13 +1861,13 @@
         <v>414776</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>208</v>
@@ -1882,13 +1876,13 @@
         <v>216821</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>607</v>
@@ -1897,13 +1891,13 @@
         <v>631597</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,13 +1912,13 @@
         <v>514077</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>277</v>
@@ -1933,13 +1927,13 @@
         <v>289290</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>770</v>
@@ -1948,13 +1942,13 @@
         <v>803366</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +1963,13 @@
         <v>482852</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>212</v>
@@ -1984,28 +1978,28 @@
         <v>220116</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>669</v>
       </c>
       <c r="N22" s="7">
-        <v>702968</v>
+        <v>702967</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,7 +2041,7 @@
         <v>2802</v>
       </c>
       <c r="N23" s="7">
-        <v>2927293</v>
+        <v>2927292</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2061,7 +2055,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6510-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6510-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31937AC7-09D3-4719-9550-076A34D8E45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{487AD134-425C-4122-AD39-A3BAD9E6D830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E1532121-331C-48F2-A341-23583D0FE2A3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5BD8E033-8CEE-438D-83DC-CDB98EFE3975}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
   <si>
     <t>Población según la exposición a movimientos repetitivos de manos o brazos durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -74,433 +74,442 @@
     <t>20,51%</t>
   </si>
   <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
   </si>
   <si>
     <t>23,45%</t>
   </si>
   <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
   </si>
   <si>
     <t>21,36%</t>
   </si>
   <si>
-    <t>17,72%</t>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
   </si>
   <si>
     <t>25,02%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
   </si>
   <si>
     <t>18,76%</t>
   </si>
   <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
+    <t>24,13%</t>
   </si>
   <si>
     <t>24,01%</t>
   </si>
   <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -915,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F6AF35-3C8A-4F34-9DC2-D85FB1CAF3DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B831435C-030E-4661-95A1-9EB8B1DF2ABA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1311,13 +1320,13 @@
         <v>145514</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>376</v>
@@ -1326,13 +1335,13 @@
         <v>394520</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1347,13 +1356,13 @@
         <v>250941</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
         <v>116</v>
@@ -1583,13 +1592,13 @@
         <v>282060</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1604,13 +1613,13 @@
         <v>109499</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>66</v>
@@ -1619,13 +1628,13 @@
         <v>68986</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>171</v>
@@ -1634,13 +1643,13 @@
         <v>178485</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1655,13 +1664,13 @@
         <v>81118</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>78</v>
@@ -1670,13 +1679,13 @@
         <v>81024</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>157</v>
@@ -1685,13 +1694,13 @@
         <v>162142</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,13 +1715,13 @@
         <v>49453</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -1721,13 +1730,13 @@
         <v>23347</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>67</v>
@@ -1736,13 +1745,13 @@
         <v>72800</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1810,13 +1819,13 @@
         <v>491269</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>283</v>
@@ -1825,13 +1834,13 @@
         <v>298092</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>756</v>
@@ -1840,13 +1849,13 @@
         <v>789361</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,13 +1870,13 @@
         <v>414776</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>208</v>
@@ -1876,13 +1885,13 @@
         <v>216821</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>607</v>
@@ -1891,13 +1900,13 @@
         <v>631597</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1921,13 @@
         <v>514077</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>277</v>
@@ -1927,13 +1936,13 @@
         <v>289290</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>770</v>
@@ -1942,13 +1951,13 @@
         <v>803366</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,13 +1972,13 @@
         <v>482852</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>212</v>
@@ -1978,13 +1987,13 @@
         <v>220116</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>669</v>
@@ -1993,13 +2002,13 @@
         <v>702967</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,7 +2064,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6510-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6510-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{487AD134-425C-4122-AD39-A3BAD9E6D830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1491C813-75B3-4914-9A42-062223C50590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5BD8E033-8CEE-438D-83DC-CDB98EFE3975}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{65B8E528-EF07-44E8-A809-10A42B6C5980}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
   <si>
     <t>Población según la exposición a movimientos repetitivos de manos o brazos durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>20,51%</t>
   </si>
   <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
   </si>
   <si>
     <t>23,45%</t>
   </si>
   <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
   </si>
   <si>
     <t>21,36%</t>
   </si>
   <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,10 +104,10 @@
     <t>14,47%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
   </si>
   <si>
     <t>17,6%</t>
@@ -116,16 +116,16 @@
     <t>12,16%</t>
   </si>
   <si>
-    <t>24,68%</t>
+    <t>25,47%</t>
   </si>
   <si>
     <t>15,37%</t>
   </si>
   <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>35,39%</t>
   </si>
   <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
   </si>
   <si>
     <t>22,56%</t>
   </si>
   <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
   </si>
   <si>
     <t>31,68%</t>
   </si>
   <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,28 +164,28 @@
     <t>29,63%</t>
   </si>
   <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
   </si>
   <si>
     <t>36,39%</t>
   </si>
   <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
   </si>
   <si>
     <t>31,58%</t>
   </si>
   <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,319 +197,316 @@
     <t>22,19%</t>
   </si>
   <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
   </si>
   <si>
     <t>25,02%</t>
   </si>
   <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
   </si>
   <si>
     <t>23,16%</t>
   </si>
   <si>
-    <t>21,08%</t>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
   </si>
   <si>
     <t>25,37%</t>
   </si>
   <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
   </si>
   <si>
     <t>22,44%</t>
   </si>
   <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
+    <t>25,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -924,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B831435C-030E-4661-95A1-9EB8B1DF2ABA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D40C64-6C74-421B-80B0-E98F5D7695F3}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1362,7 +1359,7 @@
         <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>116</v>
@@ -1371,13 +1368,13 @@
         <v>121000</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>357</v>
@@ -1386,13 +1383,13 @@
         <v>371941</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1407,13 +1404,13 @@
         <v>300068</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>164</v>
@@ -1422,13 +1419,13 @@
         <v>173873</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>454</v>
@@ -1437,7 +1434,7 @@
         <v>473941</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>76</v>
@@ -1819,13 +1816,13 @@
         <v>491269</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>283</v>
@@ -1834,28 +1831,28 @@
         <v>298092</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>756</v>
       </c>
       <c r="N19" s="7">
-        <v>789361</v>
+        <v>789362</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,13 +1867,13 @@
         <v>414776</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>208</v>
@@ -1885,10 +1882,10 @@
         <v>216821</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>137</v>
@@ -1924,10 +1921,10 @@
         <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>277</v>
@@ -1936,13 +1933,13 @@
         <v>289290</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>770</v>
@@ -1951,13 +1948,13 @@
         <v>803366</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1969,13 @@
         <v>482852</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>212</v>
@@ -1987,28 +1984,28 @@
         <v>220116</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>669</v>
       </c>
       <c r="N22" s="7">
-        <v>702967</v>
+        <v>702968</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,7 +2047,7 @@
         <v>2802</v>
       </c>
       <c r="N23" s="7">
-        <v>2927292</v>
+        <v>2927293</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2064,7 +2061,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6510-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6510-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1491C813-75B3-4914-9A42-062223C50590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D9039DD-B8A7-47B0-9456-88380370277D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{65B8E528-EF07-44E8-A809-10A42B6C5980}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4DF8BB68-CA17-43C4-BE7B-70E6310CBAC4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -921,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D40C64-6C74-421B-80B0-E98F5D7695F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FCA576-F348-4A42-B2B4-426978953507}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1775,7 +1775,7 @@
         <v>278</v>
       </c>
       <c r="I18" s="7">
-        <v>290176</v>
+        <v>290177</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
